--- a/data/trans_camb/P31_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P31_3_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>11,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>12,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>-10,52</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-6,07</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 14,49</t>
+          <t>1,02; 25,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 17,57</t>
+          <t>2,21; 26,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 9,5</t>
+          <t>-12,5; 17,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 7,0</t>
+          <t>-6,41; 5,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 10,4</t>
+          <t>-10,82; 2,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 10,75</t>
+          <t>-18,81; -3,57</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 14,19</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 12,17</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-13,54; 2,84</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>-0,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>-4,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>-11,76%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-7,57%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 21,1</t>
+          <t>1,45; 44,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 25,57</t>
+          <t>3,16; 47,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 11,31</t>
+          <t>-16,62; 29,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 8,39</t>
+          <t>-6,96; 6,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 13,35</t>
+          <t>-11,64; 3,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 13,93</t>
+          <t>-20,7; -4,1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 19,44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 16,23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-16,37; 3,67</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-2,88</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,54</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-4,77</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 6,76</t>
+          <t>-10,56; 13,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 4,26</t>
+          <t>-15,31; 8,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 5,81</t>
+          <t>-17,67; 5,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 3,5</t>
+          <t>-10,76; 5,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 3,56</t>
+          <t>-12,08; 3,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 0,84</t>
+          <t>-11,4; 3,88</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,17; 5,96</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,34; 3,02</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-11,87; 2,54</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,53%</t>
+          <t>-5,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>-7,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,85%</t>
+          <t>-3,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>-4,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,81%</t>
+          <t>-3,22%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-1,12%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-5,39%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-5,66%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 8,36</t>
+          <t>-12,51; 19,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 5,4</t>
+          <t>-18,47; 11,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 6,74</t>
+          <t>-21,52; 7,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 4,0</t>
+          <t>-11,83; 6,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 4,17</t>
+          <t>-13,22; 3,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 0,98</t>
+          <t>-12,26; 4,48</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-9,25; 7,44</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-13,06; 3,7</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-13,55; 3,15</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,12</t>
+          <t>-15,91</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,92</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 7,63</t>
+          <t>-21,82; 5,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 6,14</t>
+          <t>-25,48; 4,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 21,27</t>
+          <t>-38,12; 1,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 16,86</t>
+          <t>2,33; 34,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 10,46</t>
+          <t>-12,43; 26,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 7,54</t>
+          <t>-16,3; 22,97</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 17,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-12,8; 14,69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-20,28; 7,88</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>-5,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,39%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>-16,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,01%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-6,85%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 8,45</t>
+          <t>-22,77; 5,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 6,78</t>
+          <t>-25,96; 4,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 27,81</t>
+          <t>-39,09; 1,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 22,16</t>
+          <t>2,96; 54,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 12,56</t>
+          <t>-14,2; 41,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 8,86</t>
+          <t>-18,63; 35,79</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 21,95</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-13,92; 18,91</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-22,62; 10,29</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-6,01</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-5,54</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 7,77</t>
+          <t>-1,92; 14,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 7,16</t>
+          <t>-3,8; 12,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,98</t>
+          <t>-12,46; 4,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,11</t>
+          <t>-4,23; 5,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,62</t>
+          <t>-8,18; 1,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,06</t>
+          <t>-11,46; -0,36</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 7,94</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 5,03</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-10,85; -0,05</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>-5,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>-3,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>-6,82%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-6,72%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 10,25</t>
+          <t>-2,38; 21,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 9,34</t>
+          <t>-4,71; 17,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 8,18</t>
+          <t>-15,66; 6,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,72</t>
+          <t>-4,74; 6,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,77</t>
+          <t>-8,83; 2,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,95</t>
+          <t>-12,73; -0,44</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 10,14</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 6,37</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-12,94; -0,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
